--- a/Identificação.xlsx
+++ b/Identificação.xlsx
@@ -22,10 +22,10 @@
     <t>Diretório</t>
   </si>
   <si>
-    <t>C:\Users\Henrique\AppData\Roaming\bittorrent\BitTorrent.exe</t>
+    <t>\AppData\Roaming\bittorrent\BitTorrent.exe</t>
   </si>
   <si>
-    <t>D:\Henrique\Downloads\torrent</t>
+    <t>\Downloads\torrent</t>
   </si>
 </sst>
 </file>
@@ -33,7 +33,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -43,6 +43,12 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -91,10 +97,10 @@
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -423,7 +429,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
